--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A7E648A-CD92-4036-A7C9-D36324EBFDA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="restaurantsSat" sheetId="3" r:id="rId3"/>
     <sheet name="Resultats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -105,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,12 +172,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,6 +185,12 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -265,12 +271,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +313,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -341,6 +349,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D330-43B5-80A7-5CE52BD98808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -369,6 +382,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D330-43B5-80A7-5CE52BD98808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -397,6 +415,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D330-43B5-80A7-5CE52BD98808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -473,6 +496,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D330-43B5-80A7-5CE52BD98808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -511,7 +539,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -589,7 +616,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -602,25 +629,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Gain commun</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -642,34 +650,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Resultats!$B$1,Resultats!$C$1,Resultats!$D$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Compl.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Similaire</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neutre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$B$2</c:f>
@@ -682,6 +672,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3273-4CC3-872B-1D320393AFBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -697,34 +692,16 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Resultats!$B$1,Resultats!$C$1,Resultats!$D$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Compl.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Similaire</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neutre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$C$2</c:f>
@@ -737,6 +714,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3273-4CC3-872B-1D320393AFBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -756,25 +738,12 @@
             <a:solidFill>
               <a:schemeClr val="accent3"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Resultats!$B$1,Resultats!$C$1,Resultats!$D$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Compl.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Similaire</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neutre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$D$2</c:f>
@@ -787,6 +756,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3273-4CC3-872B-1D320393AFBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -796,96 +770,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="-25"/>
-        <c:axId val="3023360"/>
-        <c:axId val="39099136"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685308432"/>
+        <c:axId val="671759136"/>
       </c:barChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>bar</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Resultats!$B$12:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Resultats!$A$12:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="3023360"/>
-        <c:axId val="39099136"/>
-      </c:scatterChart>
       <c:catAx>
-        <c:axId val="3023360"/>
+        <c:axId val="685308432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39099136"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671759136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -893,69 +827,654 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39099136"/>
+        <c:axId val="671759136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1200"/>
-                  <a:t>Moy.</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
-                  <a:t> sat option finale</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9525">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="3023360"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685308432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,7 +1494,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -992,20 +1517,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>709515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1066,7 +1597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,9 +1630,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,6 +1682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1309,1249 +1874,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>4</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>5</v>
-      </c>
-      <c r="B27" s="4">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>2</v>
       </c>
-      <c r="B30" s="4">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>4</v>
-      </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
         <v>2</v>
       </c>
-      <c r="C34" s="4">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>5</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="4">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35" s="4">
-        <v>5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>5</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4</v>
-      </c>
-      <c r="E37" s="4">
-        <v>4</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
-        <v>4</v>
-      </c>
-      <c r="F40" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4">
-        <v>5</v>
-      </c>
-      <c r="C41" s="4">
-        <v>5</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4">
-        <v>5</v>
-      </c>
-      <c r="C42" s="4">
-        <v>5</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4</v>
-      </c>
-      <c r="F43" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4">
-        <v>4</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45" s="4">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
         <v>3</v>
       </c>
-      <c r="B46" s="4">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5</v>
-      </c>
-      <c r="F48" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>4</v>
-      </c>
-      <c r="B49" s="4">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4">
-        <v>4</v>
-      </c>
-      <c r="D49" s="4">
-        <v>4</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4</v>
-      </c>
-      <c r="F49" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>5</v>
-      </c>
-      <c r="B50" s="4">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4">
-        <v>4</v>
-      </c>
-      <c r="E50" s="4">
-        <v>5</v>
-      </c>
-      <c r="F50" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
         <v>3</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="4">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-      <c r="E51" s="4">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>4</v>
-      </c>
-      <c r="B52" s="4">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>5</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="4">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4">
-        <v>5</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
         <v>3</v>
       </c>
-      <c r="E53" s="4">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>5</v>
-      </c>
-      <c r="B54" s="4">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
         <v>3</v>
       </c>
-      <c r="E54" s="4">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>4</v>
-      </c>
-      <c r="B55" s="4">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4">
-        <v>4</v>
-      </c>
-      <c r="F55" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>5</v>
-      </c>
-      <c r="B56" s="4">
-        <v>5</v>
-      </c>
-      <c r="C56" s="4">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4">
-        <v>5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>5</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>5</v>
-      </c>
-      <c r="B57" s="4">
-        <v>5</v>
-      </c>
-      <c r="C57" s="4">
-        <v>5</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>4</v>
-      </c>
-      <c r="F57" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>5</v>
-      </c>
-      <c r="C58" s="4">
-        <v>5</v>
-      </c>
-      <c r="D58" s="4">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4">
-        <v>5</v>
-      </c>
-      <c r="F58" s="4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>5</v>
-      </c>
-      <c r="B59" s="4">
-        <v>5</v>
-      </c>
-      <c r="C59" s="4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
         <v>3</v>
       </c>
-      <c r="D59" s="4">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4">
-        <v>4</v>
-      </c>
-      <c r="F59" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>4</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5</v>
-      </c>
-      <c r="D60" s="4">
-        <v>4</v>
-      </c>
-      <c r="E60" s="4">
-        <v>4</v>
-      </c>
-      <c r="F60" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>4</v>
-      </c>
-      <c r="B62" s="4">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>3</v>
       </c>
-      <c r="E62" s="4">
-        <v>5</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="E62" s="2">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2566,19 +3131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -2627,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -2656,16 +3221,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10">
         <v>0.4773</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>0.45610000000000001</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5">
+      <c r="D7" s="10"/>
+      <c r="E7" s="3">
         <v>0.80869999999999997</v>
       </c>
     </row>
@@ -2680,2146 +3245,2146 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="6"/>
+    <col min="1" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
         <v>17</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.77499997615814198</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>0.64999997615814198</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>0.8125</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>9.1666668653488201E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>0.89583331346511796</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>9.1666668653488201E-2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <f>AVERAGE(B2:C2)</f>
         <v>0.71249997615814198</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <f>AVERAGE(D2:E2)</f>
         <v>0.45208333432674408</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <f>AVERAGE(F2:G2)</f>
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
         <v>19</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.80000001192092896</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.38749998807907099</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.60000002384185802</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.37916666269302401</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>4.1666671633720398E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.72916668653488204</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J61" si="0">AVERAGE(B3:C3)</f>
         <v>0.59375</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K61" si="1">AVERAGE(D3:E3)</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K60" si="1">AVERAGE(D3:E3)</f>
         <v>0.48958334326744102</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L61" si="2">AVERAGE(F3:G3)</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L60" si="2">AVERAGE(F3:G3)</f>
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
         <v>20</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.63749998807907104</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.483333349227905</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.57499998807907104</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.50833332538604703</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0.64374998211860657</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>0.52916666865348805</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
         <v>21</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.29166665673255898</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.31666666269302401</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.625</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0.64583332836627949</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>0.50833332538604759</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <f t="shared" si="2"/>
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
         <v>23</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.46666666865348799</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.65833330154418901</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.42500001192092901</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.82499998807907104</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0.34166666865348799</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>0.58333332836627949</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>0.54166665673255898</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <f t="shared" si="2"/>
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
         <v>24</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.79166662693023704</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.49166667461395303</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.38333332538604697</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.72500002384185802</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>0.45833331346511802</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>0.64166665077209506</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
         <v>0.44166666269302346</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <f t="shared" si="2"/>
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
         <v>25</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.82499998807907104</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.54583334922790505</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.36250001192092901</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.65833330154418901</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.63749998807907104</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>0.40000000596046498</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0.68541666865348805</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>0.51041665673255898</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <f t="shared" si="2"/>
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
         <v>26</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.41249999403953502</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.89583331346511796</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.375</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.72083330154418901</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>0.65416665375232652</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>0.47916665673255898</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <f t="shared" si="2"/>
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
         <v>27</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.204166665673256</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.42500001192092901</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.420833349227905</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0.47499999403953502</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0.77083331346511796</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>0.60208333283662796</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
         <v>0.422916680574417</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <f t="shared" si="2"/>
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
         <v>28</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0.875</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.33333331346511802</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.72083330154418901</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.55000001192092896</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.72083330154418901</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0.55000001192092896</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0.60416665673255898</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
         <v>0.63541665673255898</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <f t="shared" si="2"/>
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
         <v>29</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.75</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.36666667461395303</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.75</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.15416666865348799</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>0.875</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>9.1666668653488201E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>0.55833333730697654</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
         <v>0.45208333432674397</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <f t="shared" si="2"/>
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
         <v>30</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.72500002384185802</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0.391666650772095</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>0.51249998807907104</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.38333332538604697</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>0.67083334922790505</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>0.42916667461395303</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>0.55833333730697654</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
         <v>0.44791665673255898</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <f t="shared" si="2"/>
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
         <v>31</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>0.61250001192092896</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.52499997615814198</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0.54583334922790505</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>0.64999997615814198</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>0.420833349227905</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>0.59791666269302346</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
         <v>0.53541666269302346</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <f t="shared" si="2"/>
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
         <v>32</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>0.74166667461395297</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>0.454166650772095</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.55833327770233199</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.77499997615814198</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>0.33750000596046398</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>0.59791666269302401</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
         <v>0.62916663289070152</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <f t="shared" si="2"/>
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
         <v>33</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>0.1875</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>0.72500002384185802</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>0.875</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>0.70833331346511796</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>0.45625001192092901</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
         <v>0.4375</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
         <v>34</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>0.77499997615814198</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0.66666668653488204</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>0.74166667461395297</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.27083331346511802</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>0.8125</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>0.21666666865348799</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>0.72083333134651206</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <f t="shared" si="1"/>
         <v>0.50624999403953552</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <f t="shared" si="2"/>
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
         <v>35</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>0.83749997615814198</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0.58749997615814198</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>0.79166662693023704</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>0.24583332240581501</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>0.77083331346511796</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>0.41249999403953502</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>0.71249997615814198</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <f t="shared" si="1"/>
         <v>0.51874997466802597</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <f t="shared" si="2"/>
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
         <v>36</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>0.77499997615814198</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.57499998807907104</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.79166668653488204</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>0.16666665673255901</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>0.71666663885116599</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>0.233333334326744</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>0.67499998211860657</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <f t="shared" si="1"/>
         <v>0.47916667163372051</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <f t="shared" si="2"/>
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
         <v>37</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>0.59583330154418901</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0.55000001192092896</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.20833332836627999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>0.75</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>0.20833332836627999</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>0.57291665673255898</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <f t="shared" si="1"/>
         <v>0.58333332091569901</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <f t="shared" si="2"/>
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4">
         <v>38</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>0.62083327770233099</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>0.625</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>0.33333331346511802</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>0.75</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>0.35416668653488198</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>0.66041663289070107</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <f t="shared" si="1"/>
         <v>0.47916665673255898</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
         <v>39</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>0.9375</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.22916667163372001</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>0.875</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>0.75833332538604703</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>0.27500000596046398</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333581685998</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <f t="shared" si="1"/>
         <v>0.58333334326744102</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <f t="shared" si="2"/>
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4">
         <v>40</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>0.39583331346511802</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>0.9375</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>0.6875</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>0.6875</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>0.51666665077209495</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>0.41666665673255898</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>0.66666665673255898</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <f t="shared" si="2"/>
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4">
         <v>41</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>0.91666662693023704</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>0.112499997019768</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>0.73750001192092896</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>0.55833333730697599</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>0.54583334922790505</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>0.51458331197500251</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <f t="shared" si="1"/>
         <v>0.59375</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <f t="shared" si="2"/>
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4">
         <v>42</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>0.79583334922790505</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>0.38333332538604697</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>0.358333349227905</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>0.74166667461395297</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>0.64583331346511796</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>0.547916680574417</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <f t="shared" si="1"/>
         <v>0.37083333730697599</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <f t="shared" si="2"/>
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4">
         <v>44</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.37916666269302401</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0.9375</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.77083331346511796</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.125</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0.78333330154418901</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>0.266666650772095</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>0.65833333134651206</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <f t="shared" si="1"/>
         <v>0.44791665673255898</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <f t="shared" si="2"/>
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4">
         <v>45</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>0.875</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>0.44583332538604697</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>0.84583330154418901</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>0.125</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>0.9375</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>0.133333325386047</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>0.66041666269302346</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <f t="shared" si="1"/>
         <v>0.4854166507720945</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="4">
         <f t="shared" si="2"/>
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4">
         <v>46</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>0.40416663885116599</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0.80833327770233099</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>0.15000000596046401</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>0.52499997615814198</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>0.34166663885116599</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>0.68124997615814198</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <f t="shared" si="1"/>
         <v>0.47916664183139751</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <f t="shared" si="2"/>
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4">
         <v>47</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>0.57499998807907104</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>0.78333330154418901</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>8.3333328366279602E-2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>0.22499999403953599</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="4">
         <f t="shared" si="1"/>
         <v>0.43333331495523431</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="4">
         <f t="shared" si="2"/>
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4">
         <v>48</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>0.24583332240581501</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>0.94999998807907104</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>0.14583332836627999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>0.24583332240581501</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>0.62291666120290756</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
         <f t="shared" si="1"/>
         <v>0.54791665822267555</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="4">
         <f t="shared" si="2"/>
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4">
         <v>49</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>0.6875</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="4">
         <v>0.43333330750465399</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>0.1875</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>0.39583331346511802</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>0.56041665375232697</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="4">
         <f t="shared" si="1"/>
         <v>0.57291665673255898</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="4">
         <f t="shared" si="2"/>
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4">
         <v>50</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>0.70416665077209495</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>0.47083333134651201</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>0.94999998807907104</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>0.15416666865348799</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>0.51041665673255898</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
         <f t="shared" si="1"/>
         <v>0.58749999105930351</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="4">
         <f t="shared" si="2"/>
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4">
         <v>51</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>0.875</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>0.8125</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>0.625</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>0.25</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>0.58333334326744102</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="4">
         <f t="shared" si="1"/>
         <v>0.55208334326744102</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="4">
         <f t="shared" si="2"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4">
         <v>52</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>0.875</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>0.195833325386047</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>0.83333331346511796</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>0.112499997019768</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>0.83333331346511796</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>0.112499997019768</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>0.53541666269302346</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="4">
         <f t="shared" si="1"/>
         <v>0.47291665524244297</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="4">
         <f t="shared" si="2"/>
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4">
         <v>53</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>0.25</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>0.75</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="4">
         <v>0.41666665673255898</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>0.25</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="4">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="4">
         <f t="shared" si="1"/>
         <v>0.58333332836627949</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="4">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4">
         <v>54</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>0.29166665673255898</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>0.76249998807907104</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>0.329166650772095</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>0.875</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>0.16666665673255901</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="4">
         <f t="shared" si="0"/>
         <v>0.64583332836627949</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="4">
         <f t="shared" si="1"/>
         <v>0.545833319425583</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="4">
         <f t="shared" si="2"/>
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4">
         <v>55</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>0.8125</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0.49166667461395303</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>0.4375</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>0.25833332538604697</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>0.53750002384185802</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>0.30833333730697599</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
         <f t="shared" si="0"/>
         <v>0.65208333730697654</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="4">
         <f t="shared" si="1"/>
         <v>0.34791666269302346</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="4">
         <f t="shared" si="2"/>
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4">
         <v>56</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>0.60000002384185802</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>0.72916662693023704</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>0.78333330154418901</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <v>0.3125</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>0.94999998807907104</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <v>0.22916665673255901</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="4">
         <f t="shared" si="0"/>
         <v>0.66458332538604759</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <f t="shared" si="1"/>
         <v>0.5479166507720945</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="4">
         <f t="shared" si="2"/>
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4">
         <v>57</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>0.79166662693023704</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>0.42500001192092901</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="4">
         <v>9.1666668653488201E-2</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>0.80416667461395297</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="4">
         <v>0.46250000596046498</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="4">
         <f t="shared" si="0"/>
         <v>0.608333319425583</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="4">
         <f t="shared" si="1"/>
         <v>0.52499999105930306</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="4">
         <f t="shared" si="2"/>
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4">
         <v>58</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>0.82499998807907104</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>0.16666667163372001</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>0.94999998807907104</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>4.1666671633720398E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>0.52916663885116599</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>0.58749997615814198</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
         <f t="shared" si="0"/>
         <v>0.4958333298563955</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>0.49583332985639572</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="4">
         <f t="shared" si="2"/>
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4">
         <v>59</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>0.6875</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>0.66250002384185802</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>0.75</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="4">
         <v>0.454166680574417</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>0.9375</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>0.329166650772095</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <f t="shared" si="0"/>
         <v>0.67500001192092896</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <f t="shared" si="1"/>
         <v>0.60208334028720856</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="4">
         <f t="shared" si="2"/>
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4">
         <v>60</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>0.72500002384185802</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>0.57083332538604703</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <v>0.55416667461395297</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>0.46250000596046498</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <v>0.454166650772095</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="4">
         <f t="shared" si="0"/>
         <v>0.65416666865348794</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="4">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="4">
         <f t="shared" si="2"/>
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4">
         <v>61</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>0.77499997615814198</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>0.5625</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>0.37083333730697599</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>0.44166666269302401</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>0.5</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="4">
         <v>0.50833332538604703</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="4">
         <f t="shared" si="0"/>
         <v>0.66874998807907104</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="4">
         <f t="shared" si="1"/>
         <v>0.40625</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="4">
         <f t="shared" si="2"/>
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4">
         <v>62</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>0.78750002384185802</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>0.44166666269302401</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>0.78333330154418901</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>4.9999997019767803E-2</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>0.95833331346511796</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <v>0.125</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="4">
         <f t="shared" si="0"/>
         <v>0.61458334326744102</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="4">
         <f t="shared" si="1"/>
         <v>0.41666664928197839</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="4">
         <f t="shared" si="2"/>
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4">
         <v>63</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>0.65833330154418901</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>0.61250001192092896</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>0.6875</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>0.125</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="4">
         <v>0.91666662693023704</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="4">
         <v>0.10416667163372</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="4">
         <f t="shared" si="0"/>
         <v>0.63541665673255898</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="4">
         <f t="shared" si="1"/>
         <v>0.40625</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="4">
         <f t="shared" si="2"/>
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4">
         <v>64</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>0.9375</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>0.25</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>0.47499999403953502</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="4">
         <v>0.60833334922790505</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>0.64583331346511796</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="4">
         <v>0.5625</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="4">
         <f t="shared" si="0"/>
         <v>0.59375</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="4">
         <f t="shared" si="1"/>
         <v>0.54166667163372006</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="4">
         <f t="shared" si="2"/>
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4">
         <v>65</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>0.62083327770233099</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>0.64166665077209495</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>0.45833331346511802</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>0.47083333134651201</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="4">
         <v>0.78333330154418901</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="4">
         <v>0.29166668653488198</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="4">
         <f t="shared" si="0"/>
         <v>0.63124996423721291</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="4">
         <f t="shared" si="1"/>
         <v>0.46458332240581501</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="4">
         <f t="shared" si="2"/>
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4">
         <v>66</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>0.64999997615814198</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>0.80000001192092896</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>0.52499997615814198</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>0.36250001192092901</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <v>0.420833349227905</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="4">
         <f t="shared" si="0"/>
         <v>0.72499999403953552</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="4">
         <f t="shared" si="1"/>
         <v>0.44374999403953552</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="4">
         <f t="shared" si="2"/>
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4">
         <v>67</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>0.80000001192092896</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>0.4375</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>0.57916665077209495</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="4">
         <v>0.31666666269302401</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="4">
         <v>0.79583334922790505</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="4">
         <v>0.43333333730697599</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="4">
         <f t="shared" si="0"/>
         <v>0.61875000596046448</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>0.44791665673255948</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="4">
         <f t="shared" si="2"/>
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4">
         <v>68</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>0.32083332538604697</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>0.47499999403953502</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="4">
         <v>0.22916667163372001</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="4">
         <v>0.40000000596046498</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="4">
         <v>0.61250001192092896</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="4">
         <f t="shared" si="0"/>
         <v>0.66041666269302346</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>0.35208333283662752</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="4">
         <f t="shared" si="2"/>
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4">
         <v>69</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>0.60833334922790505</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>0.75</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>0.72916662693023704</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>4.9999997019767803E-2</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="4">
         <v>0.133333325386047</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="4">
         <f t="shared" si="0"/>
         <v>0.67916667461395253</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>0.3895833119750024</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="4">
         <f t="shared" si="2"/>
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4">
         <v>70</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>0.70833331346511796</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>0.70833331346511796</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>0.48750001192092901</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>0.31666666269302401</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="4">
         <v>0.46666666865348799</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="4">
         <f t="shared" si="0"/>
         <v>0.70833331346511796</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>0.40208333730697654</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="4">
         <f t="shared" si="2"/>
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4">
         <v>71</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>0.9375</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>0.375</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>0.54166662693023704</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>0.875</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="4">
         <v>0.56666666269302401</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="4">
         <v>0.47499999403953502</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="4">
         <f t="shared" si="0"/>
         <v>0.65625</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="4">
         <f t="shared" si="1"/>
         <v>0.70833331346511852</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="4">
         <f t="shared" si="2"/>
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4">
         <v>72</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>0.72916662693023704</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>0.58749997615814198</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="4">
         <v>0.40000000596046498</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="4">
         <v>0.79166662693023704</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="4">
         <v>0.14583332836627999</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="4">
         <f t="shared" si="0"/>
         <v>0.6562499701976775</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>0.49374999105930351</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="4">
         <f t="shared" si="2"/>
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4">
         <v>73</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>0.55833327770233199</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="4">
         <v>0.9375</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="4">
         <v>0.112499997019768</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="4">
         <v>4.9999997019767803E-2</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="4">
         <f t="shared" si="0"/>
         <v>0.74791663885116599</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>0.52499999850988399</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="4">
         <f t="shared" si="2"/>
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4">
         <v>74</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="4">
         <v>9.9999994039535495E-2</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="4">
         <v>9.9999994039535495E-2</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="4">
         <v>0.875</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="4">
         <v>0.34999999403953502</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="4">
         <f t="shared" si="0"/>
         <v>0.54999999701976776</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>0.54999999701976776</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="4">
         <f t="shared" si="2"/>
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4">
         <v>75</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>0.266666650772095</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="4">
         <v>0.94999998807907104</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>0.8125</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="4">
         <v>0.36250001192092901</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="4">
         <v>0.64166665077209495</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="4">
         <v>0.28333333134651201</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="4">
         <f t="shared" si="0"/>
         <v>0.608333319425583</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>0.58750000596046448</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="4">
         <f t="shared" si="2"/>
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4">
         <v>76</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>0.80416667461395297</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>0.625</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>0.62083327770233099</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>0.51249998807907104</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="4">
         <v>0.42500001192092901</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="4">
         <v>0.24583332240581501</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="4">
         <f t="shared" si="0"/>
         <v>0.71458333730697654</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>0.56666663289070107</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="4">
         <f t="shared" si="2"/>
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4">
         <v>77</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="4">
         <v>0.49166667461395303</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>0.64583331346511796</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <v>0.30416667461395303</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="4">
         <v>0.91666662693023704</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="4">
         <v>0.17499999701976801</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="4">
         <f t="shared" si="0"/>
         <v>0.53749999403953552</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>0.47499999403953552</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="4">
         <f t="shared" si="2"/>
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4">
         <v>78</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="4">
         <v>0.58333331346511796</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="4">
         <v>0.55000001192092896</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>0.69999998807907104</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="4">
         <v>0.25</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="4">
         <v>0.6875</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="4">
         <v>0.36250001192092901</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="4">
         <f t="shared" si="0"/>
         <v>0.56666666269302346</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>0.47499999403953552</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="4">
         <f t="shared" si="2"/>
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4">
         <v>79</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="4">
         <v>0.25</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>0.29166665673255898</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="4">
         <v>0.58749997615814198</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="4">
         <v>0.76249998807907104</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="4">
         <v>0.32499998807907099</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="4">
         <f t="shared" si="0"/>
         <v>0.46250000596046448</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="4">
         <f>AVERAGE(D61:E61)</f>
         <v>0.43958331644535048</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="4">
         <f>AVERAGE(F61:G61)</f>
         <v>0.54374998807907104</v>
       </c>
@@ -4835,111 +5400,111 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="6" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" style="6"/>
+    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>0.62138888252278168</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.50326388229926422</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>6.4869018305032389E-2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>7.7224318868891334E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>8.8909000000000002</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>6.3903999999999996</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>1.737E-12</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>2.8839999999999999E-8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4956,7 +5521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -4976,7 +5541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -4996,7 +5561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -5016,7 +5581,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>0.63</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A7E648A-CD92-4036-A7C9-D36324EBFDA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{76FBE25A-5845-4B9D-A4CC-857FCEFBC73B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,346 +292,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Gain</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> joint</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultats!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compl.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultats!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.62138888252278168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D330-43B5-80A7-5CE52BD98808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultats!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Similaire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultats!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.50326388229926422</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D330-43B5-80A7-5CE52BD98808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Resultats!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Neutre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Resultats!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5334722176194191</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D330-43B5-80A7-5CE52BD98808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="-25"/>
-        <c:axId val="57147904"/>
-        <c:axId val="572940288"/>
-      </c:barChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>bar1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Resultats!$B$12:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Resultats!$A$12:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D330-43B5-80A7-5CE52BD98808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="57147904"/>
-        <c:axId val="572940288"/>
-      </c:scatterChart>
-      <c:catAx>
-        <c:axId val="57147904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572940288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="572940288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" vert="horz"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050"/>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57147904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1944544826633513"/>
-          <c:y val="0.86535688247302422"/>
-          <c:w val="0.68828374084818333"/>
-          <c:h val="8.3717191601049873E-2"/>
+          <c:x val="0.11725627307101902"/>
+          <c:y val="0.10673254671100542"/>
+          <c:w val="0.84940507436570434"/>
+          <c:h val="0.78586810665743223"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100"/>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -652,7 +325,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -660,6 +333,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resultats!$B$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.4869018305032389E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resultats!$B$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.4869018305032389E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$B$2</c:f>
@@ -702,6 +417,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resultats!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.7224318868891334E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resultats!$C$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.7224318868891334E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$C$2</c:f>
@@ -744,6 +501,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Resultats!$D$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1606845378041767E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Resultats!$D$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1606845378041767E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Resultats!$D$2</c:f>
@@ -763,6 +562,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -780,45 +580,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="671759136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -847,6 +614,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400"/>
+                  <a:t>Moy.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
+                  <a:t> gain commun</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.9477252531458099E-3"/>
+              <c:y val="0.35271328685573444"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -890,6 +724,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25950568678915137"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.54209973753280838"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -931,6 +806,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1481,52 +1357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>216159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>709515</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>39655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>41988</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433873</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1545,13 +1385,704 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54556</cdr:x>
+      <cdr:y>0.17918</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7318</cdr:x>
+      <cdr:y>0.26913</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="31" name="Groupe 30">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE0FECC-2BE8-4FC9-91D3-318A289D9891}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2486455" y="562958"/>
+          <a:ext cx="848837" cy="282608"/>
+          <a:chOff x="2489210" y="971550"/>
+          <a:chExt cx="849779" cy="315149"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="29" name="Groupe 28">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BB0550-2A69-49EB-8D1F-5610AAD40CA6}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="2489210" y="1157272"/>
+            <a:ext cx="849779" cy="129427"/>
+            <a:chOff x="2489210" y="1157273"/>
+            <a:chExt cx="849779" cy="129426"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="6" name="Connecteur droit 5">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23F271D-66D5-4B17-AE95-C1D8D6CBBD68}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2489210" y="1158698"/>
+              <a:ext cx="849779" cy="7957"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="18" name="Connecteur droit 17">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1AE3F9-7268-4BF3-8EFC-563030086BC0}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="2490529" y="1157273"/>
+              <a:ext cx="3643" cy="120665"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="20" name="Connecteur droit 19">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B54A6B-9D56-4F93-9508-7A969FF332D8}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="3335657" y="1160084"/>
+              <a:ext cx="3205" cy="126615"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="30" name="ZoneTexte 29">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BF3845-EFA9-4D7C-AAA2-9A8D8D60391D}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="2774692" y="971550"/>
+            <a:ext cx="179387" cy="179387"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1"/>
+              <a:t>*</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35347</cdr:x>
+      <cdr:y>0.11285</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53963</cdr:x>
+      <cdr:y>0.20264</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="32" name="Groupe 31">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE4BD15-6B46-4805-95A5-D03517B459A3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1611010" y="354546"/>
+          <a:ext cx="848425" cy="282120"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="849366" cy="314607"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="33" name="Groupe 32">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBBCC4-BE14-4843-8CD8-D27815E5C63B}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="185404"/>
+            <a:ext cx="849366" cy="129203"/>
+            <a:chOff x="0" y="185723"/>
+            <a:chExt cx="849779" cy="129426"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="35" name="Connecteur droit 34">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBBC9A7-275C-4F01-A7D5-AE41B541153F}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="0" y="187148"/>
+              <a:ext cx="849779" cy="7957"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="36" name="Connecteur droit 35">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF2DA73-8B54-43A5-9BB7-EE5C181554A5}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="1319" y="185723"/>
+              <a:ext cx="3643" cy="120665"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="37" name="Connecteur droit 36">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA33B84-45EC-41F6-A56D-D7FAABD41AE4}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="846447" y="188534"/>
+              <a:ext cx="3205" cy="126615"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="34" name="ZoneTexte 3">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0931AD8-D8AB-479C-9A52-2EB433FFC4B9}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="285343" y="0"/>
+            <a:ext cx="179300" cy="179078"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1"/>
+              <a:t>*</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3548</cdr:x>
+      <cdr:y>0.04609</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73124</cdr:x>
+      <cdr:y>0.13469</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="38" name="Groupe 37">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4451BA1E-0349-4D3D-9B89-7414559F4C41}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1617032" y="144812"/>
+          <a:ext cx="1715704" cy="278361"/>
+          <a:chOff x="-192" y="6296"/>
+          <a:chExt cx="849558" cy="310414"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="39" name="Groupe 38">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D430C49C-5E21-4CEE-AA13-7836D02B6F84}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="-192" y="185085"/>
+            <a:ext cx="849558" cy="131625"/>
+            <a:chOff x="-192" y="185409"/>
+            <a:chExt cx="850384" cy="132083"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="41" name="Connecteur droit 40">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD291845-8C47-443B-B6AB-340050BA84D7}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="0" y="186837"/>
+              <a:ext cx="850192" cy="7971"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="42" name="Connecteur droit 41">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D84641-E4D1-4D6F-A214-F0B0E08C4D04}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="-192" y="185409"/>
+              <a:ext cx="2013" cy="104999"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="43" name="Connecteur droit 42">
+              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE11A41-6987-4103-ABCE-44127566B100}"/>
+                </a:ext>
+              </a:extLst>
+            </cdr:cNvPr>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="848655" y="188225"/>
+              <a:ext cx="1410" cy="129267"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="40" name="ZoneTexte 3">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AC7539-153F-4E2E-B975-AEF34DA4CB40}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="285204" y="6296"/>
+            <a:ext cx="179213" cy="178768"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1"/>
+              <a:t>*</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1877,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5403,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{76FBE25A-5845-4B9D-A4CC-857FCEFBC73B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="restaurantsSat" sheetId="3" r:id="rId3"/>
     <sheet name="Resultats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Bob</t>
   </si>
@@ -107,11 +101,20 @@
   <si>
     <t>Compl.</t>
   </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +282,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -387,7 +390,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -471,7 +474,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -555,14 +558,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -572,11 +574,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685308432"/>
-        <c:axId val="671759136"/>
+        <c:axId val="519150080"/>
+        <c:axId val="519178496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685308432"/>
+        <c:axId val="519150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +588,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671759136"/>
+        <c:crossAx val="519178496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671759136"/>
+        <c:axId val="519178496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,26 +662,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -712,7 +694,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685308432"/>
+        <c:crossAx val="519150080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -767,14 +749,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -806,7 +788,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1373,7 +1355,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1392,7 @@
         <cdr:cNvPr id="31" name="Groupe 30">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE0FECC-2BE8-4FC9-91D3-318A289D9891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BE0FECC-2BE8-4FC9-91D3-318A289D9891}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1418,8 +1400,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2486455" y="562958"/>
-          <a:ext cx="848837" cy="282608"/>
+          <a:off x="2301289" y="584061"/>
+          <a:ext cx="785600" cy="293205"/>
           <a:chOff x="2489210" y="971550"/>
           <a:chExt cx="849779" cy="315149"/>
         </a:xfrm>
@@ -1429,7 +1411,7 @@
           <cdr:cNvPr id="29" name="Groupe 28">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BB0550-2A69-49EB-8D1F-5610AAD40CA6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5BB0550-2A69-49EB-8D1F-5610AAD40CA6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -1448,7 +1430,7 @@
             <cdr:cNvPr id="6" name="Connecteur droit 5">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23F271D-66D5-4B17-AE95-C1D8D6CBBD68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F23F271D-66D5-4B17-AE95-C1D8D6CBBD68}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1483,7 +1465,7 @@
             <cdr:cNvPr id="18" name="Connecteur droit 17">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1AE3F9-7268-4BF3-8EFC-563030086BC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D1AE3F9-7268-4BF3-8EFC-563030086BC0}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1518,7 +1500,7 @@
             <cdr:cNvPr id="20" name="Connecteur droit 19">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B54A6B-9D56-4F93-9508-7A969FF332D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67B54A6B-9D56-4F93-9508-7A969FF332D8}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1554,7 +1536,7 @@
           <cdr:cNvPr id="30" name="ZoneTexte 29">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BF3845-EFA9-4D7C-AAA2-9A8D8D60391D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9BF3845-EFA9-4D7C-AAA2-9A8D8D60391D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -1596,7 +1578,7 @@
         <cdr:cNvPr id="32" name="Groupe 31">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE4BD15-6B46-4805-95A5-D03517B459A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFE4BD15-6B46-4805-95A5-D03517B459A3}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1604,8 +1586,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1611010" y="354546"/>
-          <a:ext cx="848425" cy="282120"/>
+          <a:off x="1491012" y="367850"/>
+          <a:ext cx="785263" cy="292682"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="849366" cy="314607"/>
         </a:xfrm>
@@ -1615,7 +1597,7 @@
           <cdr:cNvPr id="33" name="Groupe 32">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBBCC4-BE14-4843-8CD8-D27815E5C63B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BFBBCC4-BE14-4843-8CD8-D27815E5C63B}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -1634,7 +1616,7 @@
             <cdr:cNvPr id="35" name="Connecteur droit 34">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBBC9A7-275C-4F01-A7D5-AE41B541153F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FBBC9A7-275C-4F01-A7D5-AE41B541153F}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1669,7 +1651,7 @@
             <cdr:cNvPr id="36" name="Connecteur droit 35">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF2DA73-8B54-43A5-9BB7-EE5C181554A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DF2DA73-8B54-43A5-9BB7-EE5C181554A5}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1704,7 +1686,7 @@
             <cdr:cNvPr id="37" name="Connecteur droit 36">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA33B84-45EC-41F6-A56D-D7FAABD41AE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA33B84-45EC-41F6-A56D-D7FAABD41AE4}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1740,7 +1722,7 @@
           <cdr:cNvPr id="34" name="ZoneTexte 3">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0931AD8-D8AB-479C-9A52-2EB433FFC4B9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0931AD8-D8AB-479C-9A52-2EB433FFC4B9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -1846,7 +1828,7 @@
         <cdr:cNvPr id="38" name="Groupe 37">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4451BA1E-0349-4D3D-9B89-7414559F4C41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4451BA1E-0349-4D3D-9B89-7414559F4C41}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1854,8 +1836,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1617032" y="144812"/>
-          <a:ext cx="1715704" cy="278361"/>
+          <a:off x="1496622" y="150237"/>
+          <a:ext cx="1587905" cy="288803"/>
           <a:chOff x="-192" y="6296"/>
           <a:chExt cx="849558" cy="310414"/>
         </a:xfrm>
@@ -1865,7 +1847,7 @@
           <cdr:cNvPr id="39" name="Groupe 38">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D430C49C-5E21-4CEE-AA13-7836D02B6F84}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D430C49C-5E21-4CEE-AA13-7836D02B6F84}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -1884,7 +1866,7 @@
             <cdr:cNvPr id="41" name="Connecteur droit 40">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD291845-8C47-443B-B6AB-340050BA84D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD291845-8C47-443B-B6AB-340050BA84D7}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1919,7 +1901,7 @@
             <cdr:cNvPr id="42" name="Connecteur droit 41">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D84641-E4D1-4D6F-A214-F0B0E08C4D04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26D84641-E4D1-4D6F-A214-F0B0E08C4D04}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1954,7 +1936,7 @@
             <cdr:cNvPr id="43" name="Connecteur droit 42">
               <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE11A41-6987-4103-ABCE-44127566B100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE11A41-6987-4103-ABCE-44127566B100}"/>
                 </a:ext>
               </a:extLst>
             </cdr:cNvPr>
@@ -1990,7 +1972,7 @@
           <cdr:cNvPr id="40" name="ZoneTexte 3">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AC7539-153F-4E2E-B975-AEF34DA4CB40}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09AC7539-153F-4E2E-B975-AEF34DA4CB40}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -2128,7 +2110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2161,26 +2143,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2213,23 +2178,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2405,19 +2353,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2379,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -2451,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2471,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2491,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2511,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2531,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2551,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2571,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2591,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2611,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2631,7 +2579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -2651,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2671,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2691,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2711,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2731,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2751,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2771,7 +2719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2791,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2811,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -2831,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -2851,7 +2799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -2871,7 +2819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -2891,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -2911,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -2931,7 +2879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -2951,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -2971,7 +2919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -2991,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3011,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -3031,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3051,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3071,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3091,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3111,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3131,7 +3079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3151,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3171,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3191,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3211,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3231,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -3251,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3271,7 +3219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3291,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3311,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3331,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3351,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3371,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3391,7 +3339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -3411,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3431,7 +3379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3451,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -3471,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -3491,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3511,7 +3459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -3531,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3551,7 +3499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -3571,7 +3519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -3591,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -3611,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -3631,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -3662,19 +3610,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -3723,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -3752,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0.4773</v>
       </c>
@@ -3776,19 +3724,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.578125" style="4"/>
+    <col min="1" max="1025" width="8.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -3855,7 +3803,7 @@
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>19</v>
       </c>
@@ -3890,7 +3838,7 @@
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -3925,7 +3873,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>21</v>
       </c>
@@ -3960,7 +3908,7 @@
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -3995,7 +3943,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -4030,7 +3978,7 @@
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -4065,7 +4013,7 @@
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -4100,7 +4048,7 @@
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -4135,7 +4083,7 @@
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4170,7 +4118,7 @@
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -4205,7 +4153,7 @@
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -4240,7 +4188,7 @@
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -4275,7 +4223,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -4310,7 +4258,7 @@
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -4345,7 +4293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -4380,7 +4328,7 @@
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -4415,7 +4363,7 @@
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -4450,7 +4398,7 @@
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -4485,7 +4433,7 @@
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -4520,7 +4468,7 @@
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -4555,7 +4503,7 @@
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -4590,7 +4538,7 @@
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -4625,7 +4573,7 @@
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -4660,7 +4608,7 @@
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -4695,7 +4643,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -4730,7 +4678,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -4765,7 +4713,7 @@
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -4800,7 +4748,7 @@
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -4835,7 +4783,7 @@
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>49</v>
       </c>
@@ -4870,7 +4818,7 @@
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>50</v>
       </c>
@@ -4905,7 +4853,7 @@
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -4940,7 +4888,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>52</v>
       </c>
@@ -4975,7 +4923,7 @@
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>53</v>
       </c>
@@ -5010,7 +4958,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>54</v>
       </c>
@@ -5045,7 +4993,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>55</v>
       </c>
@@ -5080,7 +5028,7 @@
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>56</v>
       </c>
@@ -5115,7 +5063,7 @@
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>57</v>
       </c>
@@ -5150,7 +5098,7 @@
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>58</v>
       </c>
@@ -5185,7 +5133,7 @@
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>59</v>
       </c>
@@ -5220,7 +5168,7 @@
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>60</v>
       </c>
@@ -5255,7 +5203,7 @@
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>61</v>
       </c>
@@ -5290,7 +5238,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>62</v>
       </c>
@@ -5325,7 +5273,7 @@
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -5360,7 +5308,7 @@
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>64</v>
       </c>
@@ -5395,7 +5343,7 @@
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>65</v>
       </c>
@@ -5430,7 +5378,7 @@
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>66</v>
       </c>
@@ -5465,7 +5413,7 @@
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -5500,7 +5448,7 @@
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>68</v>
       </c>
@@ -5535,7 +5483,7 @@
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>69</v>
       </c>
@@ -5570,7 +5518,7 @@
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>70</v>
       </c>
@@ -5605,7 +5553,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -5640,7 +5588,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -5675,7 +5623,7 @@
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>73</v>
       </c>
@@ -5710,7 +5658,7 @@
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>74</v>
       </c>
@@ -5745,7 +5693,7 @@
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>75</v>
       </c>
@@ -5780,7 +5728,7 @@
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>76</v>
       </c>
@@ -5815,7 +5763,7 @@
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>77</v>
       </c>
@@ -5850,7 +5798,7 @@
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>78</v>
       </c>
@@ -5885,7 +5833,7 @@
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -5918,6 +5866,122 @@
       <c r="L61" s="4">
         <f>AVERAGE(F61:G61)</f>
         <v>0.54374998807907104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4">
+        <f>AVERAGE(B2:'restaurantsSat'!B61)</f>
+        <v>0.71458332414428394</v>
+      </c>
+      <c r="C63" s="4">
+        <f>AVERAGE(C2:'restaurantsSat'!C61)</f>
+        <v>0.52819444090127943</v>
+      </c>
+      <c r="D63" s="4">
+        <f>AVERAGE(D2:'restaurantsSat'!D61)</f>
+        <v>0.68034721066554371</v>
+      </c>
+      <c r="E63" s="4">
+        <f>AVERAGE(E2:'restaurantsSat'!E61)</f>
+        <v>0.32618055393298467</v>
+      </c>
+      <c r="F63" s="4">
+        <f>AVERAGE(F2:'restaurantsSat'!F61)</f>
+        <v>0.72868054732680321</v>
+      </c>
+      <c r="G63" s="4">
+        <f>AVERAGE(G2:'restaurantsSat'!G61)</f>
+        <v>0.33826388791203493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="4">
+        <f>_xlfn.STDEV.S(B2:B61)</f>
+        <v>0.19785142664511576</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" ref="C64:G64" si="3">_xlfn.STDEV.S(C2:C61)</f>
+        <v>0.24145271750739275</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17701305506883414</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18909334115130935</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.18457478037627015</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16378240842538308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="4">
+        <f>MIN(B2:B61)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" ref="C66:G66" si="4">MIN(C2:C61)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="4"/>
+        <v>0.29166665673255898</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1666671633720398E-2</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="4"/>
+        <v>4.9999997019767803E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="4">
+        <f>MAX(B2:B61)</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:G67" si="5">MAX(C2:C61)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="5"/>
+        <v>0.77083331346511796</v>
       </c>
     </row>
   </sheetData>
@@ -5931,23 +5995,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
-    <col min="5" max="1025" width="8.578125" style="4"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>25</v>
@@ -5959,7 +6023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5973,7 +6037,7 @@
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5987,13 +6051,13 @@
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -6007,7 +6071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -6021,7 +6085,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -6035,7 +6099,7 @@
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6052,7 +6116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -6072,7 +6136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -6092,7 +6156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -6112,7 +6176,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.63</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74077E2E-9BEB-4E0F-BD6F-A00DA1D61A5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="restaurantsSat" sheetId="3" r:id="rId3"/>
     <sheet name="Resultats" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Bob</t>
   </si>
@@ -31,9 +37,6 @@
   </si>
   <si>
     <t>Kevin</t>
-  </si>
-  <si>
-    <t>User</t>
   </si>
   <si>
     <t>user</t>
@@ -102,19 +105,13 @@
     <t>Compl.</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
+    <t>Comp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +279,634 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Satisfaction Perçu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(perceptifs!$A$6,perceptifs!$C$6,perceptifs!$E$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.72164051114277472</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.74069823800345425</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.67386820718575124</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(perceptifs!$A$6,perceptifs!$C$6,perceptifs!$E$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.72164051114277472</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.74069823800345425</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.67386820718575124</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>perceptifs!$A$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Comp.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Similaire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>perceptifs!$A$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5081967213114753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4262295081967213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5081967213114753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Equité perçue</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltHorz">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltHorz">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltHorz">
+                <a:fgClr>
+                  <a:schemeClr val="accent3"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(perceptifs!$B$6,perceptifs!$D$6,perceptifs!$F$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.9504097477007426</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0674007037167828</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.98624418661324253</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(perceptifs!$B$6,perceptifs!$D$6,perceptifs!$F$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.9504097477007426</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0674007037167828</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.98624418661324253</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>perceptifs!$A$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Comp.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Similaire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>perceptifs!$A$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8852459016393444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8360655737704916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8360655737704916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AAC-48CD-BBDB-647D1C27AFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="777848408"/>
+        <c:axId val="777848736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="777848408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777848736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="777848736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Perception du gain commun</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.17670494313210849"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777848408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -390,7 +1014,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -412,7 +1036,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -474,7 +1098,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -558,7 +1182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -574,11 +1198,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="519150080"/>
-        <c:axId val="519178496"/>
+        <c:axId val="685308432"/>
+        <c:axId val="671759136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="519150080"/>
+        <c:axId val="685308432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +1212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519178496"/>
+        <c:crossAx val="671759136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +1220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519178496"/>
+        <c:axId val="671759136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,6 +1286,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -694,7 +1338,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519150080"/>
+        <c:crossAx val="685308432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,14 +1393,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -788,11 +1432,50 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1335,27 +2018,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>216159</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433873</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34990</xdr:rowOff>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,694 +2563,44 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.54556</cdr:x>
-      <cdr:y>0.17918</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.7318</cdr:x>
-      <cdr:y>0.26913</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="31" name="Groupe 30">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>216159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433873</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BE0FECC-2BE8-4FC9-91D3-318A289D9891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
             </a:ext>
           </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2301289" y="584061"/>
-          <a:ext cx="785600" cy="293205"/>
-          <a:chOff x="2489210" y="971550"/>
-          <a:chExt cx="849779" cy="315149"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="29" name="Groupe 28">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5BB0550-2A69-49EB-8D1F-5610AAD40CA6}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="2489210" y="1157272"/>
-            <a:ext cx="849779" cy="129427"/>
-            <a:chOff x="2489210" y="1157273"/>
-            <a:chExt cx="849779" cy="129426"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="6" name="Connecteur droit 5">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F23F271D-66D5-4B17-AE95-C1D8D6CBBD68}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="2489210" y="1158698"/>
-              <a:ext cx="849779" cy="7957"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="18" name="Connecteur droit 17">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D1AE3F9-7268-4BF3-8EFC-563030086BC0}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="2490529" y="1157273"/>
-              <a:ext cx="3643" cy="120665"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="20" name="Connecteur droit 19">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67B54A6B-9D56-4F93-9508-7A969FF332D8}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="3335657" y="1160084"/>
-              <a:ext cx="3205" cy="126615"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="30" name="ZoneTexte 29">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9BF3845-EFA9-4D7C-AAA2-9A8D8D60391D}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="2774692" y="971550"/>
-            <a:ext cx="179387" cy="179387"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.35347</cdr:x>
-      <cdr:y>0.11285</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.53963</cdr:x>
-      <cdr:y>0.20264</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="32" name="Groupe 31">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFE4BD15-6B46-4805-95A5-D03517B459A3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1491012" y="367850"/>
-          <a:ext cx="785263" cy="292682"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="849366" cy="314607"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="33" name="Groupe 32">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BFBBCC4-BE14-4843-8CD8-D27815E5C63B}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="0" y="185404"/>
-            <a:ext cx="849366" cy="129203"/>
-            <a:chOff x="0" y="185723"/>
-            <a:chExt cx="849779" cy="129426"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="35" name="Connecteur droit 34">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FBBC9A7-275C-4F01-A7D5-AE41B541153F}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="0" y="187148"/>
-              <a:ext cx="849779" cy="7957"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="36" name="Connecteur droit 35">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DF2DA73-8B54-43A5-9BB7-EE5C181554A5}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="1319" y="185723"/>
-              <a:ext cx="3643" cy="120665"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="37" name="Connecteur droit 36">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DA33B84-45EC-41F6-A56D-D7FAABD41AE4}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="846447" y="188534"/>
-              <a:ext cx="3205" cy="126615"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="34" name="ZoneTexte 3">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0931AD8-D8AB-479C-9A52-2EB433FFC4B9}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="285343" y="0"/>
-            <a:ext cx="179300" cy="179078"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.3548</cdr:x>
-      <cdr:y>0.04609</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.73124</cdr:x>
-      <cdr:y>0.13469</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="38" name="Groupe 37">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4451BA1E-0349-4D3D-9B89-7414559F4C41}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1496622" y="150237"/>
-          <a:ext cx="1587905" cy="288803"/>
-          <a:chOff x="-192" y="6296"/>
-          <a:chExt cx="849558" cy="310414"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:grpSp>
-        <cdr:nvGrpSpPr>
-          <cdr:cNvPr id="39" name="Groupe 38">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D430C49C-5E21-4CEE-AA13-7836D02B6F84}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvGrpSpPr/>
-        </cdr:nvGrpSpPr>
-        <cdr:grpSpPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="-192" y="185085"/>
-            <a:ext cx="849558" cy="131625"/>
-            <a:chOff x="-192" y="185409"/>
-            <a:chExt cx="850384" cy="132083"/>
-          </a:xfrm>
-        </cdr:grpSpPr>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="41" name="Connecteur droit 40">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD291845-8C47-443B-B6AB-340050BA84D7}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="0" y="186837"/>
-              <a:ext cx="850192" cy="7971"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="42" name="Connecteur droit 41">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26D84641-E4D1-4D6F-A214-F0B0E08C4D04}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="-192" y="185409"/>
-              <a:ext cx="2013" cy="104999"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-        <cdr:cxnSp macro="">
-          <cdr:nvCxnSpPr>
-            <cdr:cNvPr id="43" name="Connecteur droit 42">
-              <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE11A41-6987-4103-ABCE-44127566B100}"/>
-                </a:ext>
-              </a:extLst>
-            </cdr:cNvPr>
-            <cdr:cNvCxnSpPr/>
-          </cdr:nvCxnSpPr>
-          <cdr:spPr>
-            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-              <a:off x="848655" y="188225"/>
-              <a:ext cx="1410" cy="129267"/>
-            </a:xfrm>
-            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-          </cdr:spPr>
-          <cdr:style>
-            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </cdr:style>
-        </cdr:cxnSp>
-      </cdr:grpSp>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="40" name="ZoneTexte 3">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09AC7539-153F-4E2E-B975-AEF34DA4CB40}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="285204" y="6296"/>
-            <a:ext cx="179213" cy="178768"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1"/>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2110,7 +2646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2143,9 +2679,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2178,6 +2731,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2353,19 +2923,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2949,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -2399,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2419,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2439,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2459,7 +3029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2479,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2499,7 +3069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2519,7 +3089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2539,7 +3109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2559,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2579,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -2599,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2619,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2639,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2659,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2679,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2699,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2719,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2739,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2759,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -2779,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -2799,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -2819,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -2839,7 +3409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -2859,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -2879,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -2899,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -2919,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -2939,7 +3509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2959,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -2979,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -2999,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3019,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3039,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3059,7 +3629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3079,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3099,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3119,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3139,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3159,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3179,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -3199,7 +3769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3219,7 +3789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3239,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3259,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3279,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3299,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3319,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3339,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -3359,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3379,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3399,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -3419,7 +3989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -3439,7 +4009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3459,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -3479,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3499,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -3519,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -3539,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -3559,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -3579,7 +4149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -3610,39 +4180,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -3668,10 +4238,10 @@
         <v>3.8360655737704916</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -3697,10 +4267,10 @@
         <v>0.98624418661324253</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>0.4773</v>
       </c>
@@ -3711,6 +4281,39 @@
       <c r="D7" s="10"/>
       <c r="E7" s="3">
         <v>0.80869999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>4.5081967213114753</v>
+      </c>
+      <c r="B12">
+        <v>4.4262295081967213</v>
+      </c>
+      <c r="C12">
+        <v>4.5081967213114753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3.8852459016393444</v>
+      </c>
+      <c r="B13">
+        <v>3.8360655737704916</v>
+      </c>
+      <c r="C13">
+        <v>3.8360655737704916</v>
       </c>
     </row>
   </sheetData>
@@ -3720,43 +4323,44 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:G67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="4"/>
+    <col min="1" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>0</v>
@@ -3768,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -3803,7 +4407,7 @@
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>19</v>
       </c>
@@ -3838,7 +4442,7 @@
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -3873,7 +4477,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>21</v>
       </c>
@@ -3908,7 +4512,7 @@
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -3943,7 +4547,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -3978,7 +4582,7 @@
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -4013,7 +4617,7 @@
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -4048,7 +4652,7 @@
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -4083,7 +4687,7 @@
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4118,7 +4722,7 @@
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -4153,7 +4757,7 @@
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -4188,7 +4792,7 @@
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -4223,7 +4827,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -4258,7 +4862,7 @@
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -4293,7 +4897,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -4328,7 +4932,7 @@
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -4363,7 +4967,7 @@
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -4398,7 +5002,7 @@
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -4433,7 +5037,7 @@
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -4468,7 +5072,7 @@
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -4503,7 +5107,7 @@
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -4538,7 +5142,7 @@
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -4573,7 +5177,7 @@
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -4608,7 +5212,7 @@
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -4643,7 +5247,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -4678,7 +5282,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -4713,7 +5317,7 @@
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -4748,7 +5352,7 @@
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -4783,7 +5387,7 @@
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>49</v>
       </c>
@@ -4818,7 +5422,7 @@
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>50</v>
       </c>
@@ -4853,7 +5457,7 @@
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -4888,7 +5492,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>52</v>
       </c>
@@ -4923,7 +5527,7 @@
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>53</v>
       </c>
@@ -4958,7 +5562,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>54</v>
       </c>
@@ -4993,7 +5597,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>55</v>
       </c>
@@ -5028,7 +5632,7 @@
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
         <v>56</v>
       </c>
@@ -5063,7 +5667,7 @@
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>57</v>
       </c>
@@ -5098,7 +5702,7 @@
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>58</v>
       </c>
@@ -5133,7 +5737,7 @@
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4">
         <v>59</v>
       </c>
@@ -5168,7 +5772,7 @@
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4">
         <v>60</v>
       </c>
@@ -5203,7 +5807,7 @@
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4">
         <v>61</v>
       </c>
@@ -5238,7 +5842,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4">
         <v>62</v>
       </c>
@@ -5273,7 +5877,7 @@
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -5308,7 +5912,7 @@
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>64</v>
       </c>
@@ -5343,7 +5947,7 @@
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4">
         <v>65</v>
       </c>
@@ -5378,7 +5982,7 @@
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>66</v>
       </c>
@@ -5413,7 +6017,7 @@
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -5448,7 +6052,7 @@
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>68</v>
       </c>
@@ -5483,7 +6087,7 @@
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>69</v>
       </c>
@@ -5518,7 +6122,7 @@
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4">
         <v>70</v>
       </c>
@@ -5553,7 +6157,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -5588,7 +6192,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -5623,7 +6227,7 @@
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>73</v>
       </c>
@@ -5658,7 +6262,7 @@
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>74</v>
       </c>
@@ -5693,7 +6297,7 @@
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>75</v>
       </c>
@@ -5728,7 +6332,7 @@
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>76</v>
       </c>
@@ -5763,7 +6367,7 @@
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>77</v>
       </c>
@@ -5798,7 +6402,7 @@
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>78</v>
       </c>
@@ -5833,7 +6437,7 @@
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -5866,122 +6470,6 @@
       <c r="L61" s="4">
         <f>AVERAGE(F61:G61)</f>
         <v>0.54374998807907104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4">
-        <f>AVERAGE(B2:'restaurantsSat'!B61)</f>
-        <v>0.71458332414428394</v>
-      </c>
-      <c r="C63" s="4">
-        <f>AVERAGE(C2:'restaurantsSat'!C61)</f>
-        <v>0.52819444090127943</v>
-      </c>
-      <c r="D63" s="4">
-        <f>AVERAGE(D2:'restaurantsSat'!D61)</f>
-        <v>0.68034721066554371</v>
-      </c>
-      <c r="E63" s="4">
-        <f>AVERAGE(E2:'restaurantsSat'!E61)</f>
-        <v>0.32618055393298467</v>
-      </c>
-      <c r="F63" s="4">
-        <f>AVERAGE(F2:'restaurantsSat'!F61)</f>
-        <v>0.72868054732680321</v>
-      </c>
-      <c r="G63" s="4">
-        <f>AVERAGE(G2:'restaurantsSat'!G61)</f>
-        <v>0.33826388791203493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="4">
-        <f>_xlfn.STDEV.S(B2:B61)</f>
-        <v>0.19785142664511576</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" ref="C64:G64" si="3">_xlfn.STDEV.S(C2:C61)</f>
-        <v>0.24145271750739275</v>
-      </c>
-      <c r="D64" s="4">
-        <f t="shared" si="3"/>
-        <v>0.17701305506883414</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18909334115130935</v>
-      </c>
-      <c r="F64" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18457478037627015</v>
-      </c>
-      <c r="G64" s="4">
-        <f t="shared" si="3"/>
-        <v>0.16378240842538308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="4">
-        <f>MIN(B2:B61)</f>
-        <v>0.1875</v>
-      </c>
-      <c r="C66" s="4">
-        <f t="shared" ref="C66:G66" si="4">MIN(C2:C61)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D66" s="4">
-        <f t="shared" si="4"/>
-        <v>0.29166665673255898</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <f t="shared" si="4"/>
-        <v>4.1666671633720398E-2</v>
-      </c>
-      <c r="G66" s="4">
-        <f t="shared" si="4"/>
-        <v>4.9999997019767803E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="4">
-        <f>MAX(B2:B61)</f>
-        <v>1</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" ref="C67:G67" si="5">MAX(C2:C61)</f>
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="5"/>
-        <v>0.875</v>
-      </c>
-      <c r="F67" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G67" s="4">
-        <f t="shared" si="5"/>
-        <v>0.77083331346511796</v>
       </c>
     </row>
   </sheetData>
@@ -5995,37 +6483,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" style="4"/>
+    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>0.62138888252278168</v>
@@ -6037,9 +6525,9 @@
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6">
         <v>6.4869018305032389E-2</v>
@@ -6051,29 +6539,29 @@
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>8.8909000000000002</v>
@@ -6085,9 +6573,9 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7">
         <v>1.737E-12</v>
@@ -6099,24 +6587,24 @@
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -6136,7 +6624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -6156,7 +6644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -6176,7 +6664,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>0.63</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{74077E2E-9BEB-4E0F-BD6F-A00DA1D61A5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -111,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +273,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -328,7 +322,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -347,7 +341,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000025-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -442,7 +436,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4AAC-48CD-BBDB-647D1C27AFE2}"/>
             </c:ext>
@@ -487,7 +481,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -511,7 +505,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000027-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -535,7 +529,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000026-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -630,7 +624,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4AAC-48CD-BBDB-647D1C27AFE2}"/>
             </c:ext>
@@ -646,11 +640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="777848408"/>
-        <c:axId val="777848736"/>
+        <c:axId val="522327552"/>
+        <c:axId val="522062080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="777848408"/>
+        <c:axId val="522327552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777848736"/>
+        <c:crossAx val="522062080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777848736"/>
+        <c:axId val="522062080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
@@ -765,26 +759,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -817,7 +791,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777848408"/>
+        <c:crossAx val="522327552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -832,6 +806,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -863,14 +838,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -906,7 +881,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1014,7 +989,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1098,7 +1073,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1182,7 +1157,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1198,11 +1173,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685308432"/>
-        <c:axId val="671759136"/>
+        <c:axId val="522329600"/>
+        <c:axId val="522064384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685308432"/>
+        <c:axId val="522329600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1187,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671759136"/>
+        <c:crossAx val="522064384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671759136"/>
+        <c:axId val="522064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,26 +1261,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1338,7 +1293,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685308432"/>
+        <c:crossAx val="522329600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,14 +1348,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2541,7 +2496,7 @@
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,23 +2521,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>216159</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34318</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:rowOff>178378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>433873</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34990</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252032</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2679,26 +2634,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2731,23 +2669,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2923,19 +2844,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +2870,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -2969,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2989,7 +2910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3009,7 +2930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3029,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3049,7 +2970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3069,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -3089,7 +3010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -3109,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3129,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -3149,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3169,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -3189,7 +3110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3209,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -3229,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3249,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3269,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -3289,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3309,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3329,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3349,7 +3270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3369,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -3389,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -3409,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -3429,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -3449,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -3469,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3489,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -3509,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3529,7 +3450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -3549,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3569,7 +3490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3589,7 +3510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3609,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3629,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3649,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3669,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3689,7 +3610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3709,7 +3630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3729,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3749,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -3769,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3789,7 +3710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3809,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3829,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3849,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3869,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3889,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3909,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -3929,7 +3850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3949,7 +3870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3969,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -3989,7 +3910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -4009,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -4029,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -4049,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -4069,7 +3990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -4089,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -4109,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4129,7 +4050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4149,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -4180,19 +4101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -4241,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -4270,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0.4773</v>
       </c>
@@ -4283,7 +4204,7 @@
         <v>0.80869999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4294,7 +4215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.5081967213114753</v>
       </c>
@@ -4305,7 +4226,7 @@
         <v>4.5081967213114753</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.8852459016393444</v>
       </c>
@@ -4328,19 +4249,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.578125" style="4"/>
+    <col min="1" max="1025" width="8.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4372,7 +4293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -4407,7 +4328,7 @@
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>19</v>
       </c>
@@ -4442,7 +4363,7 @@
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -4477,7 +4398,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>21</v>
       </c>
@@ -4512,7 +4433,7 @@
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -4547,7 +4468,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -4582,7 +4503,7 @@
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -4617,7 +4538,7 @@
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -4652,7 +4573,7 @@
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -4687,7 +4608,7 @@
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4722,7 +4643,7 @@
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -4757,7 +4678,7 @@
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -4792,7 +4713,7 @@
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -4827,7 +4748,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -4862,7 +4783,7 @@
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -4897,7 +4818,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -4932,7 +4853,7 @@
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -4967,7 +4888,7 @@
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -5002,7 +4923,7 @@
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -5037,7 +4958,7 @@
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -5072,7 +4993,7 @@
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -5107,7 +5028,7 @@
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -5142,7 +5063,7 @@
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -5177,7 +5098,7 @@
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -5212,7 +5133,7 @@
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -5247,7 +5168,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -5282,7 +5203,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -5317,7 +5238,7 @@
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -5352,7 +5273,7 @@
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -5387,7 +5308,7 @@
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>49</v>
       </c>
@@ -5422,7 +5343,7 @@
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>50</v>
       </c>
@@ -5457,7 +5378,7 @@
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -5492,7 +5413,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>52</v>
       </c>
@@ -5527,7 +5448,7 @@
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>53</v>
       </c>
@@ -5562,7 +5483,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>54</v>
       </c>
@@ -5597,7 +5518,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>55</v>
       </c>
@@ -5632,7 +5553,7 @@
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>56</v>
       </c>
@@ -5667,7 +5588,7 @@
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>57</v>
       </c>
@@ -5702,7 +5623,7 @@
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>58</v>
       </c>
@@ -5737,7 +5658,7 @@
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>59</v>
       </c>
@@ -5772,7 +5693,7 @@
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>60</v>
       </c>
@@ -5807,7 +5728,7 @@
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>61</v>
       </c>
@@ -5842,7 +5763,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>62</v>
       </c>
@@ -5877,7 +5798,7 @@
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -5912,7 +5833,7 @@
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>64</v>
       </c>
@@ -5947,7 +5868,7 @@
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>65</v>
       </c>
@@ -5982,7 +5903,7 @@
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>66</v>
       </c>
@@ -6017,7 +5938,7 @@
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -6052,7 +5973,7 @@
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>68</v>
       </c>
@@ -6087,7 +6008,7 @@
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>69</v>
       </c>
@@ -6122,7 +6043,7 @@
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>70</v>
       </c>
@@ -6157,7 +6078,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -6192,7 +6113,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -6227,7 +6148,7 @@
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>73</v>
       </c>
@@ -6262,7 +6183,7 @@
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>74</v>
       </c>
@@ -6297,7 +6218,7 @@
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>75</v>
       </c>
@@ -6332,7 +6253,7 @@
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>76</v>
       </c>
@@ -6367,7 +6288,7 @@
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>77</v>
       </c>
@@ -6402,7 +6323,7 @@
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>78</v>
       </c>
@@ -6437,7 +6358,7 @@
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -6483,23 +6404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
-    <col min="5" max="1025" width="8.578125" style="4"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -6511,7 +6432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6525,7 +6446,7 @@
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -6539,13 +6460,13 @@
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -6559,7 +6480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6573,7 +6494,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6587,7 +6508,7 @@
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6604,7 +6525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -6624,7 +6545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -6644,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -6664,7 +6585,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.63</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -640,11 +640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="522327552"/>
-        <c:axId val="522062080"/>
+        <c:axId val="536741376"/>
+        <c:axId val="535562496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522327552"/>
+        <c:axId val="536741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522062080"/>
+        <c:crossAx val="535562496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522062080"/>
+        <c:axId val="535562496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
@@ -791,7 +791,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522327552"/>
+        <c:crossAx val="536741376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1173,11 +1173,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="522329600"/>
-        <c:axId val="522064384"/>
+        <c:axId val="536743424"/>
+        <c:axId val="535564800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="522329600"/>
+        <c:axId val="536743424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522064384"/>
+        <c:crossAx val="535564800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1195,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522064384"/>
+        <c:axId val="535564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1293,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522329600"/>
+        <c:crossAx val="536743424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2496,7 +2496,7 @@
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6407,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0D4475F-020E-4EA3-B37B-6D7FAE062A72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Bob</t>
   </si>
@@ -101,12 +107,57 @@
   <si>
     <t>Comp.</t>
   </si>
+  <si>
+    <t>Equité</t>
+  </si>
+  <si>
+    <t>Satisfiabilité</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.67</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.22</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.34</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +178,17 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,12 +221,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +255,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -273,7 +356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -322,7 +405,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -341,7 +424,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000025-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -436,7 +519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4AAC-48CD-BBDB-647D1C27AFE2}"/>
             </c:ext>
@@ -481,7 +564,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -505,7 +588,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000027-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -529,7 +612,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000026-4AAC-48CD-BBDB-647D1C27AFE2}"/>
               </c:ext>
@@ -624,7 +707,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4AAC-48CD-BBDB-647D1C27AFE2}"/>
             </c:ext>
@@ -759,6 +842,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -806,7 +909,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -838,14 +940,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -881,7 +983,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -989,7 +1091,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1073,7 +1175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1157,7 +1259,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3273-4CC3-872B-1D320393AFBD}"/>
             </c:ext>
@@ -1261,6 +1363,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1348,14 +1470,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2480,23 +2602,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C943D5-F647-4EDF-8954-29AC15EE576A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2659,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D97D604-5FEE-475E-BFD9-019A0EDEE03E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2634,9 +2756,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2669,6 +2808,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2844,19 +3000,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2870,7 +3026,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -2890,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2910,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2930,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2950,7 +3106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2970,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2990,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -3010,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -3030,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3050,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -3070,7 +3226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3090,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -3110,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3130,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -3150,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3170,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3190,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -3210,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3230,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3250,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3270,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3290,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -3310,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -3330,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -3350,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -3370,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -3390,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3410,7 +3566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -3430,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3450,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -3470,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3490,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3510,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3530,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3550,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3570,7 +3726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3590,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3610,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3630,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3650,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3670,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -3690,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3710,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3730,7 +3886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3750,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3770,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3790,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3810,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3830,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -3850,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3870,7 +4026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3890,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -3910,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -3930,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3950,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -3970,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3990,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -4010,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -4030,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4050,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4070,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -4101,19 +4257,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="10.28515625"/>
+    <col min="1" max="1025" width="10.26171875"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -4162,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -4191,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>0.4773</v>
       </c>
@@ -4204,7 +4360,7 @@
         <v>0.80869999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -4215,7 +4371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>4.5081967213114753</v>
       </c>
@@ -4225,8 +4381,11 @@
       <c r="C12">
         <v>4.5081967213114753</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3.8852459016393444</v>
       </c>
@@ -4236,11 +4395,116 @@
       <c r="C13">
         <v>3.8360655737704916</v>
       </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4249,19 +4513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="4"/>
+    <col min="1" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -4328,7 +4592,7 @@
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>19</v>
       </c>
@@ -4363,7 +4627,7 @@
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -4398,7 +4662,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>21</v>
       </c>
@@ -4433,7 +4697,7 @@
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -4468,7 +4732,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -4503,7 +4767,7 @@
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -4538,7 +4802,7 @@
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -4573,7 +4837,7 @@
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -4608,7 +4872,7 @@
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4643,7 +4907,7 @@
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -4678,7 +4942,7 @@
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -4713,7 +4977,7 @@
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -4748,7 +5012,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -4783,7 +5047,7 @@
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -4818,7 +5082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -4853,7 +5117,7 @@
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -4888,7 +5152,7 @@
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -4923,7 +5187,7 @@
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -4958,7 +5222,7 @@
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -4993,7 +5257,7 @@
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -5028,7 +5292,7 @@
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -5063,7 +5327,7 @@
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -5098,7 +5362,7 @@
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -5133,7 +5397,7 @@
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -5168,7 +5432,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -5203,7 +5467,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -5238,7 +5502,7 @@
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -5273,7 +5537,7 @@
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -5308,7 +5572,7 @@
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>49</v>
       </c>
@@ -5343,7 +5607,7 @@
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>50</v>
       </c>
@@ -5378,7 +5642,7 @@
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -5413,7 +5677,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>52</v>
       </c>
@@ -5448,7 +5712,7 @@
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>53</v>
       </c>
@@ -5483,7 +5747,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>54</v>
       </c>
@@ -5518,7 +5782,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>55</v>
       </c>
@@ -5553,7 +5817,7 @@
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
         <v>56</v>
       </c>
@@ -5588,7 +5852,7 @@
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>57</v>
       </c>
@@ -5623,7 +5887,7 @@
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>58</v>
       </c>
@@ -5658,7 +5922,7 @@
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4">
         <v>59</v>
       </c>
@@ -5693,7 +5957,7 @@
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4">
         <v>60</v>
       </c>
@@ -5728,7 +5992,7 @@
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4">
         <v>61</v>
       </c>
@@ -5763,7 +6027,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4">
         <v>62</v>
       </c>
@@ -5798,7 +6062,7 @@
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -5833,7 +6097,7 @@
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>64</v>
       </c>
@@ -5868,7 +6132,7 @@
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4">
         <v>65</v>
       </c>
@@ -5903,7 +6167,7 @@
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>66</v>
       </c>
@@ -5938,7 +6202,7 @@
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -5973,7 +6237,7 @@
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>68</v>
       </c>
@@ -6008,7 +6272,7 @@
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>69</v>
       </c>
@@ -6043,7 +6307,7 @@
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4">
         <v>70</v>
       </c>
@@ -6078,7 +6342,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -6113,7 +6377,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -6148,7 +6412,7 @@
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>73</v>
       </c>
@@ -6183,7 +6447,7 @@
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>74</v>
       </c>
@@ -6218,7 +6482,7 @@
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>75</v>
       </c>
@@ -6253,7 +6517,7 @@
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>76</v>
       </c>
@@ -6288,7 +6552,7 @@
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>77</v>
       </c>
@@ -6323,7 +6587,7 @@
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>78</v>
       </c>
@@ -6358,7 +6622,7 @@
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -6404,23 +6668,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" style="4"/>
+    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -6432,7 +6696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +6710,7 @@
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -6460,13 +6724,13 @@
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -6480,7 +6744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6494,7 +6758,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6508,7 +6772,7 @@
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6525,7 +6789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -6545,7 +6809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -6565,7 +6829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -6585,7 +6849,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>0.63</v>
       </c>

--- a/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Resultats/JointGain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0D4475F-020E-4EA3-B37B-6D7FAE062A72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702D4BE-A624-4C20-88CA-EE8A0D538F76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8193" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satPerceptif" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Bob</t>
   </si>
@@ -152,6 +152,15 @@
   <si>
     <t xml:space="preserve"> - 0.06</t>
   </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>Satisfiability</t>
+  </si>
 </sst>
 </file>
 
@@ -251,6 +260,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,15 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -380,7 +389,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Satisfaction Perçu</c:v>
+            <c:v>Satisfaction </c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -493,10 +502,10 @@
                   <c:v>Comp.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Similaire</c:v>
+                  <c:v>Similar</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neutre</c:v>
+                  <c:v>Neutral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -529,7 +538,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Equité perçue</c:v>
+            <c:v>Fairness</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="ltHorz">
@@ -681,10 +690,10 @@
                   <c:v>Comp.</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Similaire</c:v>
+                  <c:v>Similar</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neutre</c:v>
+                  <c:v>Neutral</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3007,26 +3016,26 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.234375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -3466,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -3906,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3986,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -4026,7 +4035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -4126,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -4186,7 +4195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4206,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -4260,16 +4269,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="10.26171875"/>
+    <col min="1" max="1025" width="10.234375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <f>AVERAGE(satPerceptif!A2:A62)</f>
         <v>4.5081967213114753</v>
@@ -4318,7 +4327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <f>_xlfn.STDEV.S(satPerceptif!A2:A62)</f>
         <v>0.72164051114277472</v>
@@ -4347,31 +4356,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="13">
         <v>0.4773</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
         <v>0.45610000000000001</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="3">
         <v>0.80869999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>4.5081967213114753</v>
       </c>
@@ -4382,10 +4391,10 @@
         <v>4.5081967213114753</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3.8852459016393444</v>
       </c>
@@ -4399,15 +4408,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
@@ -4421,43 +4430,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
@@ -4471,21 +4480,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -4520,12 +4529,12 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1025" width="8.578125" style="4"/>
+    <col min="1" max="1025" width="8.5859375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>0.49374999105930306</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>19</v>
       </c>
@@ -4627,7 +4636,7 @@
         <v>0.38541667908430122</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>21</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>0.45833334326744102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>0.59166666865348805</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -4802,7 +4811,7 @@
         <v>0.51874999701976798</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>0.51041665673255898</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -4872,7 +4881,7 @@
         <v>0.62291665375232652</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>0.63541665673255898</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>0.48333333432674408</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>0.55000001192092907</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -5047,7 +5056,7 @@
         <v>0.55624999105930295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -5117,7 +5126,7 @@
         <v>0.51458333432674397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -5152,7 +5161,7 @@
         <v>0.59166665375232652</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>0.47499998658895498</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>0.47916666418314002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>0.55208334326744102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>0.51666666567325548</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -5327,7 +5336,7 @@
         <v>0.46666665375232697</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -5362,7 +5371,7 @@
         <v>0.55208334326744057</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -5397,7 +5406,7 @@
         <v>0.69374999403953552</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
         <v>44</v>
       </c>
@@ -5432,7 +5441,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>45</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>0.53541666269302346</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>46</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>0.43333330750465399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
         <v>47</v>
       </c>
@@ -5537,7 +5546,7 @@
         <v>0.61249999701976798</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>48</v>
       </c>
@@ -5572,7 +5581,7 @@
         <v>0.62291666120290756</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>49</v>
       </c>
@@ -5607,7 +5616,7 @@
         <v>0.69791665673255898</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
         <v>50</v>
       </c>
@@ -5642,7 +5651,7 @@
         <v>0.55208332836627949</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -5677,7 +5686,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
         <v>52</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>0.47291665524244297</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
         <v>53</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="4">
         <v>54</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
         <v>55</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>0.422916680574417</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
         <v>56</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>0.58958332240581501</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
         <v>57</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>0.633333340287209</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
         <v>58</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>0.55833330750465393</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>59</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>0.63333332538604747</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>60</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>0.45833332836627999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="4">
         <v>61</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>0.50416666269302346</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="4">
         <v>62</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>0.54166665673255898</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>0.5104166492819785</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="4">
         <v>64</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>0.60416665673255898</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="4">
         <v>65</v>
       </c>
@@ -6167,7 +6176,7 @@
         <v>0.53749999403953552</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="4">
         <v>66</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>0.55416667461395253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -6237,7 +6246,7 @@
         <v>0.61458334326744057</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="4">
         <v>68</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>0.50625000894069694</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="4">
         <v>69</v>
       </c>
@@ -6307,7 +6316,7 @@
         <v>0.41041666269302352</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="4">
         <v>70</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>0.58333332836627949</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>0.52083332836627949</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>0.46874997764825854</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="4">
         <v>73</v>
       </c>
@@ -6447,7 +6456,7 @@
         <v>0.52499999850988388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="4">
         <v>74</v>
       </c>
@@ -6482,7 +6491,7 @@
         <v>0.61249999701976754</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="4">
         <v>75</v>
       </c>
@@ -6517,7 +6526,7 @@
         <v>0.46249999105930351</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="4">
         <v>76</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>0.33541666716337204</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="4">
         <v>77</v>
       </c>
@@ -6587,7 +6596,7 @@
         <v>0.54583331197500251</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="4">
         <v>78</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>0.52500000596046448</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -6675,16 +6684,16 @@
       <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.83984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" style="4" customWidth="1"/>
-    <col min="5" max="1025" width="8.578125" style="4"/>
+    <col min="3" max="3" width="13.8203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.41015625" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="8.5859375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -6696,7 +6705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -6710,7 +6719,7 @@
         <v>0.5334722176194191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -6724,13 +6733,13 @@
         <v>7.1606845378041767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>2.5219999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +6798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
@@ -6809,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>0.65</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>0.65</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>0.63</v>
       </c>
